--- a/General/datasets/dataset_calcolo_coefficiente.xlsx
+++ b/General/datasets/dataset_calcolo_coefficiente.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\progetto_miaprova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\VA-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841264C9-3A8F-4C0E-B646-C14D0E11FEEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF44AF0-8180-48A2-BAE5-3D67F2EC0050}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="3168" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reati_punizioni_somma" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Reati</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>tentati omicidi</t>
-  </si>
-  <si>
-    <t>omicidi preterintenzionali</t>
-  </si>
-  <si>
-    <t>omicidi colposi</t>
   </si>
   <si>
     <t>percosse</t>
@@ -1000,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1108,68 +1102,55 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:H3" si="0">SUM(B5,B6)</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I3">
-        <f>SUM(I5,I6,24)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <f>SUM(J5,J6,44)</f>
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <f>SUM(B3:J3)</f>
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L3">
-        <f>(K3/16643)</f>
-        <v>5.7081055098239502E-3</v>
+        <v>4.9269960000000003E-3</v>
       </c>
       <c r="M3">
-        <f>ROUND(((B3*1/30)+(C3*1)+(D3*3)+(E3*6)+(F3*12)+(G3*2*12)+(H3*3*12)+(I3*5*12)+(J3*10*12))/(K3*10*12),2)</f>
-        <v>0.64</v>
+        <v>0.37</v>
       </c>
       <c r="N3">
-        <f>ROUND(((B3*1/30)+(C3*1)+(D3*3)+(E3*6)+(F3*12)+(G3*2*12)+(H3*3*12)+(I3*5*12)+(J3*10*12))/(K29*10*12),5)</f>
-        <v>3.64E-3</v>
+        <v>1.82E-3</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O6" si="1">(N3*100)</f>
-        <v>0.36399999999999999</v>
+        <f>(N3*100)</f>
+        <v>0.182</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1178,42 +1159,41 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>4.9269960000000003E-3</v>
+        <v>5.7080000000000004E-3</v>
       </c>
       <c r="M4">
-        <f>ROUND(((D4*3)+(E4*6)+(F4*12)+(G4*2*12)+(H4*3*12)+(I4*5*12)+(J4*10*12))/(K4*10*12),2)</f>
-        <v>0.37</v>
+        <v>0.64</v>
       </c>
       <c r="N4">
-        <v>1.82E-3</v>
+        <v>3.64E-3</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
-        <v>0.182</v>
+        <f>(N4*100)</f>
+        <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1221,16 +1201,16 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1239,29 +1219,29 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L5">
-        <v>4.2059699999999998E-4</v>
+        <v>1.0815359999999999E-3</v>
       </c>
       <c r="M5">
-        <v>0.44</v>
+        <v>0.01</v>
       </c>
       <c r="N5">
-        <v>1.9000000000000001E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
-        <v>1.9E-2</v>
+        <f t="shared" ref="O5:O26" si="0">(N5*100)</f>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1269,47 +1249,47 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>890</v>
       </c>
       <c r="L6">
-        <v>1.2017060000000001E-3</v>
+        <v>5.3475936000000002E-2</v>
       </c>
       <c r="M6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="N6">
-        <v>8.0000000000000007E-5</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1317,47 +1297,47 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1.0815359999999999E-3</v>
+        <v>1.20171E-4</v>
       </c>
       <c r="M7">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="N7">
-        <v>1.0000000000000001E-5</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O28" si="2">(N7*100)</f>
-        <v>1E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1365,47 +1345,47 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>315</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>890</v>
+        <v>325</v>
       </c>
       <c r="L8">
-        <v>5.3475936000000002E-2</v>
+        <v>1.9527729000000001E-2</v>
       </c>
       <c r="M8">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="N8">
-        <v>1.6000000000000001E-3</v>
+        <v>3.5100000000000001E-3</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
-        <v>0.16</v>
+        <f t="shared" si="0"/>
+        <v>0.35100000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1419,41 +1399,41 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="L9">
-        <v>1.20171E-4</v>
+        <v>2.1029859999999998E-3</v>
       </c>
       <c r="M9">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="N9">
-        <v>6.0000000000000002E-5</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
-        <v>6.0000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1464,44 +1444,44 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.9527729000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3.5100000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
-        <v>0.35100000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1515,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
       <c r="F11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1536,20 +1516,20 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>2.1029859999999998E-3</v>
+        <v>1.80256E-4</v>
       </c>
       <c r="M11">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="N11">
-        <v>3.8000000000000002E-4</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
-        <v>3.7999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1557,25 +1537,25 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1584,20 +1564,20 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.283242E-3</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1605,47 +1585,47 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1331</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3045</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2143</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>394</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>7103</v>
       </c>
       <c r="L13">
-        <v>1.80256E-4</v>
+        <v>0.42678603599999998</v>
       </c>
       <c r="M13">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="N13">
-        <v>2.0000000000000002E-5</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
-        <v>2E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.28</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1653,47 +1633,47 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>626</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>1543</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>884</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>38</v>
+        <v>3413</v>
       </c>
       <c r="L14">
-        <v>2.283242E-3</v>
+        <v>0.20507120100000001</v>
       </c>
       <c r="M14">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="N14">
-        <v>3.6999999999999999E-4</v>
+        <v>2.666E-2</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
-        <v>3.6999999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.6659999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1701,25 +1681,25 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1331</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>3045</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>2143</v>
+        <v>62</v>
       </c>
       <c r="F15">
-        <v>394</v>
+        <v>201</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1728,20 +1708,20 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7103</v>
+        <v>450</v>
       </c>
       <c r="L15">
-        <v>0.42678603599999998</v>
+        <v>2.7038395E-2</v>
       </c>
       <c r="M15">
-        <v>0.03</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N15">
-        <v>1.2800000000000001E-2</v>
+        <v>3.79E-3</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
-        <v>1.28</v>
+        <f t="shared" si="0"/>
+        <v>0.379</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1749,47 +1729,47 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>626</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>1543</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>884</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3413</v>
+        <v>33</v>
       </c>
       <c r="L16">
-        <v>0.20507120100000001</v>
+        <v>1.9828160000000001E-3</v>
       </c>
       <c r="M16">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="N16">
-        <v>2.666E-2</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
-        <v>2.6659999999999999</v>
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1803,41 +1783,41 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>2.7038395E-2</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>3.79E-3</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="2"/>
-        <v>0.379</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1845,19 +1825,19 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1872,20 +1852,20 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.9828160000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>8.0000000000000007E-5</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1893,25 +1873,25 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1920,20 +1900,20 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1654</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.9381121000000003E-2</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>4.9699999999999996E-3</v>
       </c>
       <c r="O19">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.49699999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1944,22 +1924,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1968,20 +1948,20 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.1072519999999996E-3</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.6000000000000004E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1989,25 +1969,25 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>402</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2016,20 +1996,20 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1654</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>9.9381121000000003E-2</v>
+        <v>2.4034100000000001E-4</v>
       </c>
       <c r="M21">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="N21">
-        <v>4.9699999999999996E-3</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="O21">
-        <f t="shared" si="2"/>
-        <v>0.49699999999999994</v>
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -2040,22 +2020,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2064,20 +2044,20 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="L22">
-        <v>5.1072519999999996E-3</v>
+        <v>1.8025599999999999E-3</v>
       </c>
       <c r="M22">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="N22">
-        <v>3.6000000000000002E-4</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="O22">
-        <f t="shared" si="2"/>
-        <v>3.6000000000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -2085,47 +2065,47 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>614</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>2365</v>
       </c>
       <c r="L23">
-        <v>2.4034100000000001E-4</v>
+        <v>0.14210178500000001</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="N23">
-        <v>2.0000000000000002E-5</v>
+        <v>1.2789999999999999E-2</v>
       </c>
       <c r="O23">
-        <f t="shared" si="2"/>
-        <v>2E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.2789999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -2139,41 +2119,41 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>1.8025599999999999E-3</v>
+        <v>3.0042699999999997E-4</v>
       </c>
       <c r="M24">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="N24">
-        <v>1.6000000000000001E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
-        <v>1.6E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -2181,47 +2161,47 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>762</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>614</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>307</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>2365</v>
+        <v>13</v>
       </c>
       <c r="L25">
-        <v>0.14210178500000001</v>
+        <v>7.8110899999999999E-4</v>
       </c>
       <c r="M25">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="N25">
-        <v>1.2789999999999999E-2</v>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="O25">
-        <f t="shared" si="2"/>
-        <v>1.2789999999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -2241,35 +2221,35 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>3.0042699999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>8.0000000000000007E-5</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -2277,143 +2257,47 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1873</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4398</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>4436</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>3398</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1610</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>499</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>13</v>
+        <v>16643</v>
       </c>
       <c r="L27">
-        <v>7.8110899999999999E-4</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.27</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="N27">
-        <v>2.1000000000000001E-4</v>
+        <v>7.331E-2</v>
       </c>
       <c r="O27">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29">
-        <v>261</v>
-      </c>
-      <c r="C29">
-        <v>1873</v>
-      </c>
-      <c r="D29">
-        <v>4398</v>
-      </c>
-      <c r="E29">
-        <v>4436</v>
-      </c>
-      <c r="F29">
-        <v>3398</v>
-      </c>
-      <c r="G29">
-        <v>1610</v>
-      </c>
-      <c r="H29">
-        <v>499</v>
-      </c>
-      <c r="I29">
-        <v>117</v>
-      </c>
-      <c r="J29">
-        <v>51</v>
-      </c>
-      <c r="K29">
-        <v>16643</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="N29">
-        <v>7.331E-2</v>
-      </c>
-      <c r="O29">
-        <f>SUM(O2:O28)</f>
-        <v>7.3599999999999994</v>
+        <f>SUM(O2:O26)</f>
+        <v>7.3329999999999984</v>
       </c>
     </row>
   </sheetData>
